--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3962276666666667</v>
+        <v>0.3655573333333333</v>
       </c>
       <c r="N2">
-        <v>1.188683</v>
+        <v>1.096672</v>
       </c>
       <c r="O2">
-        <v>0.1703050239984228</v>
+        <v>0.2375364113931583</v>
       </c>
       <c r="P2">
-        <v>0.1960950025990754</v>
+        <v>0.2572707166041556</v>
       </c>
       <c r="Q2">
-        <v>0.007722345147444446</v>
+        <v>0.009915011551999997</v>
       </c>
       <c r="R2">
-        <v>0.06950110632700002</v>
+        <v>0.08923510396799998</v>
       </c>
       <c r="S2">
-        <v>0.01208495085727506</v>
+        <v>0.0228231454621402</v>
       </c>
       <c r="T2">
-        <v>0.01391502384444629</v>
+        <v>0.02471927126358369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6295006666666666</v>
+        <v>0.6295006666666667</v>
       </c>
       <c r="N3">
         <v>1.888502</v>
       </c>
       <c r="O3">
-        <v>0.2705695113256179</v>
+        <v>0.4090448082825151</v>
       </c>
       <c r="P3">
-        <v>0.3115429467724861</v>
+        <v>0.4430278723705731</v>
       </c>
       <c r="Q3">
-        <v>0.01226875815977778</v>
+        <v>0.017073946582</v>
       </c>
       <c r="R3">
-        <v>0.110418823438</v>
+        <v>0.153665519238</v>
       </c>
       <c r="S3">
-        <v>0.0191997814925137</v>
+        <v>0.03930213942869217</v>
       </c>
       <c r="T3">
-        <v>0.02210728205945951</v>
+        <v>0.04256732479704081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1632393333333333</v>
+        <v>0.1127876666666667</v>
       </c>
       <c r="N4">
-        <v>0.489718</v>
+        <v>0.338363</v>
       </c>
       <c r="O4">
-        <v>0.07016289098309611</v>
+        <v>0.07328857923629238</v>
       </c>
       <c r="P4">
-        <v>0.08078794134585419</v>
+        <v>0.07937732656831935</v>
       </c>
       <c r="Q4">
-        <v>0.003181480193555556</v>
+        <v>0.003059139883</v>
       </c>
       <c r="R4">
-        <v>0.028633321742</v>
+        <v>0.027532258947</v>
       </c>
       <c r="S4">
-        <v>0.004978802560416046</v>
+        <v>0.007041766333056872</v>
       </c>
       <c r="T4">
-        <v>0.005732762769430157</v>
+        <v>0.007626789762627267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H5">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I5">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J5">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9179585</v>
+        <v>0.3541425</v>
       </c>
       <c r="N5">
-        <v>1.835917</v>
+        <v>0.7082850000000001</v>
       </c>
       <c r="O5">
-        <v>0.3945533276038849</v>
+        <v>0.2301191383708208</v>
       </c>
       <c r="P5">
-        <v>0.3028680892102324</v>
+        <v>0.1661581489360305</v>
       </c>
       <c r="Q5">
-        <v>0.01789070517883334</v>
+        <v>0.0096054070275</v>
       </c>
       <c r="R5">
-        <v>0.107344231073</v>
+        <v>0.057632442165</v>
       </c>
       <c r="S5">
-        <v>0.02799775052268249</v>
+        <v>0.02211047366530555</v>
       </c>
       <c r="T5">
-        <v>0.02149170874945153</v>
+        <v>0.01596492756897904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H6">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I6">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J6">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2196503333333334</v>
+        <v>0.07696466666666667</v>
       </c>
       <c r="N6">
-        <v>0.6589510000000001</v>
+        <v>0.230894</v>
       </c>
       <c r="O6">
-        <v>0.09440924608897809</v>
+        <v>0.05001106271721345</v>
       </c>
       <c r="P6">
-        <v>0.1087060200723518</v>
+        <v>0.0541659355209214</v>
       </c>
       <c r="Q6">
-        <v>0.00428091177988889</v>
+        <v>0.002087512654</v>
       </c>
       <c r="R6">
-        <v>0.03852820601900001</v>
+        <v>0.018787613886</v>
       </c>
       <c r="S6">
-        <v>0.00669933906041582</v>
+        <v>0.004805199137331308</v>
       </c>
       <c r="T6">
-        <v>0.007713847070515628</v>
+        <v>0.005204410634295299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I7">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J7">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3962276666666667</v>
+        <v>0.3655573333333333</v>
       </c>
       <c r="N7">
-        <v>1.188683</v>
+        <v>1.096672</v>
       </c>
       <c r="O7">
-        <v>0.1703050239984228</v>
+        <v>0.2375364113931583</v>
       </c>
       <c r="P7">
-        <v>0.1960950025990754</v>
+        <v>0.2572707166041556</v>
       </c>
       <c r="Q7">
-        <v>0.101103432565</v>
+        <v>0.09327743695999997</v>
       </c>
       <c r="R7">
-        <v>0.9099308930850001</v>
+        <v>0.8394969326399998</v>
       </c>
       <c r="S7">
-        <v>0.1582200731411478</v>
+        <v>0.2147132659310181</v>
       </c>
       <c r="T7">
-        <v>0.1821799787546292</v>
+        <v>0.2325514453405719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I8">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J8">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6295006666666666</v>
+        <v>0.6295006666666667</v>
       </c>
       <c r="N8">
         <v>1.888502</v>
       </c>
       <c r="O8">
-        <v>0.2705695113256179</v>
+        <v>0.4090448082825151</v>
       </c>
       <c r="P8">
-        <v>0.3115429467724861</v>
+        <v>0.4430278723705731</v>
       </c>
       <c r="Q8">
         <v>0.16062653761</v>
@@ -948,10 +948,10 @@
         <v>1.44563883849</v>
       </c>
       <c r="S8">
-        <v>0.2513697298331042</v>
+        <v>0.3697426688538229</v>
       </c>
       <c r="T8">
-        <v>0.2894356647130266</v>
+        <v>0.4004605475735323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I9">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J9">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1632393333333333</v>
+        <v>0.1127876666666667</v>
       </c>
       <c r="N9">
-        <v>0.489718</v>
+        <v>0.338363</v>
       </c>
       <c r="O9">
-        <v>0.07016289098309611</v>
+        <v>0.07328857923629238</v>
       </c>
       <c r="P9">
-        <v>0.08078794134585419</v>
+        <v>0.07937732656831935</v>
       </c>
       <c r="Q9">
-        <v>0.04165296448999999</v>
+        <v>0.02877946496499999</v>
       </c>
       <c r="R9">
-        <v>0.3748766804099999</v>
+        <v>0.259015184685</v>
       </c>
       <c r="S9">
-        <v>0.06518408842268006</v>
+        <v>0.0662468129032355</v>
       </c>
       <c r="T9">
-        <v>0.07505517857642403</v>
+        <v>0.07175053680569207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I10">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J10">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9179585</v>
+        <v>0.3541425</v>
       </c>
       <c r="N10">
-        <v>1.835917</v>
+        <v>0.7082850000000001</v>
       </c>
       <c r="O10">
-        <v>0.3945533276038849</v>
+        <v>0.2301191383708208</v>
       </c>
       <c r="P10">
-        <v>0.3028680892102324</v>
+        <v>0.1661581489360305</v>
       </c>
       <c r="Q10">
-        <v>0.2342308806525</v>
+        <v>0.0903647710125</v>
       </c>
       <c r="R10">
-        <v>1.405385283915</v>
+        <v>0.542188626075</v>
       </c>
       <c r="S10">
-        <v>0.3665555770812024</v>
+        <v>0.2080086647055152</v>
       </c>
       <c r="T10">
-        <v>0.2813763804607809</v>
+        <v>0.1501932213670514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I11">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J11">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2196503333333334</v>
+        <v>0.07696466666666667</v>
       </c>
       <c r="N11">
-        <v>0.6589510000000001</v>
+        <v>0.230894</v>
       </c>
       <c r="O11">
-        <v>0.09440924608897809</v>
+        <v>0.05001106271721345</v>
       </c>
       <c r="P11">
-        <v>0.1087060200723518</v>
+        <v>0.0541659355209214</v>
       </c>
       <c r="Q11">
-        <v>0.05604707730500001</v>
+        <v>0.01963868917</v>
       </c>
       <c r="R11">
-        <v>0.504423695745</v>
+        <v>0.17674820253</v>
       </c>
       <c r="S11">
-        <v>0.08770990702856227</v>
+        <v>0.04520586357988214</v>
       </c>
       <c r="T11">
-        <v>0.1009921730018362</v>
+        <v>0.0489615248866261</v>
       </c>
     </row>
   </sheetData>
